--- a/HiremasterAI.xlsx
+++ b/HiremasterAI.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="168">
   <si>
     <t>Company</t>
   </si>
@@ -43,10 +43,22 @@
     <t>"me too" factor</t>
   </si>
   <si>
-    <t>Primary color</t>
-  </si>
-  <si>
-    <t>Secondary color</t>
+    <t>Primary R</t>
+  </si>
+  <si>
+    <t>Primary G</t>
+  </si>
+  <si>
+    <t>Primary B</t>
+  </si>
+  <si>
+    <t>Secondary R</t>
+  </si>
+  <si>
+    <t>Secondary G</t>
+  </si>
+  <si>
+    <t>Secondary B</t>
   </si>
   <si>
     <t>Word Count</t>
@@ -110,12 +122,6 @@
   </si>
   <si>
     <t>links to social media</t>
-  </si>
-  <si>
-    <t>White</t>
-  </si>
-  <si>
-    <t>blue</t>
   </si>
   <si>
     <t>no</t>
@@ -155,12 +161,6 @@
 © 2023 Paycom</t>
   </si>
   <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>black</t>
-  </si>
-  <si>
     <t>Facebook</t>
   </si>
   <si>
@@ -220,9 +220,6 @@
   </si>
   <si>
     <t>Intro video includes the term "we" multiple times</t>
-  </si>
-  <si>
-    <t>red</t>
   </si>
   <si>
     <t>Yes</t>
@@ -483,9 +480,6 @@
   </si>
   <si>
     <t>quotes from employees. links to social</t>
-  </si>
-  <si>
-    <t>orange</t>
   </si>
   <si>
     <t>Vevo</t>
@@ -548,7 +542,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+  <fonts count="13">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -563,6 +557,10 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
@@ -586,12 +584,29 @@
       <name val="Arial"/>
     </font>
     <font>
-      <color rgb="FF000000"/>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12.0"/>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="&quot;Helvetica Neue&quot;"/>
     </font>
   </fonts>
   <fills count="4">
@@ -603,14 +618,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF5F5FA"/>
-        <bgColor rgb="FFF5F5FA"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFF5F5FA"/>
+        <bgColor rgb="FFF5F5FA"/>
       </patternFill>
     </fill>
   </fills>
@@ -620,7 +635,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="24">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -633,29 +648,62 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
@@ -887,12 +935,12 @@
     <col customWidth="1" min="10" max="10" width="20.88"/>
     <col customWidth="1" min="11" max="11" width="13.88"/>
     <col customWidth="1" min="12" max="12" width="15.5"/>
-    <col customWidth="1" min="15" max="15" width="18.63"/>
-    <col customWidth="1" min="16" max="16" width="16.88"/>
-    <col customWidth="1" min="19" max="19" width="19.63"/>
-    <col customWidth="1" min="22" max="22" width="19.75"/>
-    <col customWidth="1" min="23" max="23" width="17.88"/>
-    <col customWidth="1" min="24" max="24" width="14.25"/>
+    <col customWidth="1" min="17" max="17" width="18.63"/>
+    <col customWidth="1" min="18" max="18" width="16.88"/>
+    <col customWidth="1" min="21" max="21" width="19.63"/>
+    <col customWidth="1" min="24" max="24" width="19.75"/>
+    <col customWidth="1" min="25" max="25" width="17.88"/>
+    <col customWidth="1" min="26" max="26" width="14.25"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -929,7 +977,7 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
@@ -938,7 +986,7 @@
       <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="2" t="s">
@@ -968,484 +1016,568 @@
       <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="Y1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>25</v>
+      <c r="A2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="E2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="G2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="H2" s="7" t="s">
         <v>34</v>
       </c>
+      <c r="I2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="2">
+        <v>255.0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>255.0</v>
+      </c>
       <c r="M2" s="2">
+        <v>255.0</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="O2" s="2">
+        <v>123.0</v>
+      </c>
+      <c r="P2" s="2">
+        <v>196.0</v>
+      </c>
+      <c r="Q2" s="2">
         <v>538.0</v>
       </c>
-      <c r="N2" s="2">
+      <c r="R2" s="2">
         <v>3421.0</v>
       </c>
-      <c r="O2" s="2">
+      <c r="S2" s="2">
         <v>10.0</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="T2" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1">
-      <c r="A3" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="A3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="B3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" s="2" t="s">
+      <c r="F3" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="G3" s="7" t="s">
         <v>45</v>
       </c>
+      <c r="H3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="2">
+        <v>255.0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>255.0</v>
+      </c>
       <c r="M3" s="2">
+        <v>255.0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q3" s="2">
         <v>1552.0</v>
       </c>
-      <c r="N3" s="2">
+      <c r="R3" s="2">
         <v>10973.0</v>
       </c>
-      <c r="O3" s="2">
+      <c r="S3" s="2">
         <v>48.0</v>
       </c>
-      <c r="P3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="T3" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="X4" s="2" t="s">
+      <c r="K4" s="2">
+        <v>255.0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>255.0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>255.0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>24.0</v>
+      </c>
+      <c r="O4" s="2">
+        <v>119.0</v>
+      </c>
+      <c r="P4" s="2">
+        <v>242.0</v>
+      </c>
+      <c r="AB4" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L5" s="2" t="s">
+      <c r="K5" s="2">
+        <v>255.0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>255.0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>255.0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>214.0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P5" s="2">
+        <v>28.0</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>707.0</v>
+      </c>
+      <c r="R5" s="2">
+        <v>4699.0</v>
+      </c>
+      <c r="S5" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="T5" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="M5" s="2">
-        <v>707.0</v>
-      </c>
-      <c r="N5" s="2">
-        <v>4699.0</v>
-      </c>
-      <c r="O5" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="P5" s="2" t="s">
+      <c r="U5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="Q5" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="R5" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="X5" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="6" t="s">
+      <c r="B6" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="C6" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="G6" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="6" t="s">
+      <c r="J6" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="J6" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>45</v>
+      <c r="K6" s="2">
+        <v>255.0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>255.0</v>
       </c>
       <c r="M6" s="2">
+        <v>255.0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q6" s="2">
         <v>437.0</v>
       </c>
-      <c r="N6" s="2">
+      <c r="R6" s="2">
         <v>3221.0</v>
       </c>
-      <c r="O6" s="2">
+      <c r="S6" s="2">
         <v>7.0</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="T6" s="2" t="s">
         <v>55</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="V6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="X6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="W6" s="2" t="s">
+      <c r="Y6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="X6" s="2" t="s">
-        <v>67</v>
+      <c r="AA6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="C7" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="F7" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G7" s="6" t="s">
+      <c r="H7" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="I7" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="J7" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="J7" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" s="2" t="s">
+      <c r="K7" s="2">
+        <v>255.0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>255.0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>255.0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>230.0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P7" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>588.0</v>
+      </c>
+      <c r="R7" s="2">
+        <v>4008.0</v>
+      </c>
+      <c r="S7" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="T7" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="M7" s="2">
-        <v>588.0</v>
-      </c>
-      <c r="N7" s="2">
-        <v>4008.0</v>
-      </c>
-      <c r="O7" s="2">
-        <v>20.0</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="U7" s="2" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="V7" s="2" t="s">
         <v>55</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="X7" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="Y7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="C8" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="E8" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="F8" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="H8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="J8" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>45</v>
+      <c r="K8" s="2">
+        <v>255.0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>255.0</v>
       </c>
       <c r="M8" s="2">
+        <v>255.0</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q8" s="2">
         <v>687.0</v>
       </c>
-      <c r="N8" s="2">
+      <c r="R8" s="2">
         <v>4630.0</v>
       </c>
-      <c r="O8" s="2">
+      <c r="S8" s="2">
         <v>17.0</v>
       </c>
-      <c r="P8" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q8" s="2" t="s">
+      <c r="T8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="U8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="R8" s="2" t="s">
+      <c r="V8" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="U8" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="V8" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>55</v>
@@ -1453,745 +1585,877 @@
       <c r="X8" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="Y8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB8" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="C9" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="F9" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="G9" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="H9" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="I9" s="6" t="s">
+      <c r="J9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="2">
+        <v>255.0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>255.0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>255.0</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>892.0</v>
+      </c>
+      <c r="R9" s="2">
+        <v>5656.0</v>
+      </c>
+      <c r="S9" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB9" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" customHeight="1">
+      <c r="A10" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="J9" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M9" s="2">
-        <v>892.0</v>
-      </c>
-      <c r="N9" s="2">
-        <v>5656.0</v>
-      </c>
-      <c r="O9" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="V9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="W9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="X9" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="6" t="s">
+      <c r="B10" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="C10" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="D10" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="E10" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="F10" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="G10" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="H10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="J10" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K10" s="2">
+        <v>255.0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>255.0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>255.0</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>866.0</v>
+      </c>
+      <c r="R10" s="2">
+        <v>5421.0</v>
+      </c>
+      <c r="S10" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB10" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="I10" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M10" s="2">
-        <v>866.0</v>
-      </c>
-      <c r="N10" s="2">
-        <v>5421.0</v>
-      </c>
-      <c r="O10" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="V10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="W10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X10" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="F11" s="6" t="s">
+      <c r="I11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K11" s="2">
+        <v>255.0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>255.0</v>
+      </c>
+      <c r="M11" s="2">
+        <v>255.0</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>532.0</v>
+      </c>
+      <c r="R11" s="2">
+        <v>3376.0</v>
+      </c>
+      <c r="S11" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="W11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="X11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB11" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" ht="15.0" customHeight="1">
+      <c r="A12" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K12" s="2">
+        <v>255.0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>255.0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>255.0</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>670.0</v>
+      </c>
+      <c r="R12" s="2">
+        <v>4271.0</v>
+      </c>
+      <c r="S12" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="X12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB12" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H11" s="6" t="s">
+      <c r="H13" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="K13" s="2">
+        <v>247.0</v>
+      </c>
+      <c r="L13" s="2">
+        <v>72.0</v>
+      </c>
+      <c r="M13" s="2">
+        <v>67.0</v>
+      </c>
+      <c r="N13" s="2">
+        <v>255.0</v>
+      </c>
+      <c r="O13" s="2">
+        <v>255.0</v>
+      </c>
+      <c r="P13" s="2">
+        <v>255.0</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>110.0</v>
+      </c>
+      <c r="R13" s="2">
+        <v>688.0</v>
+      </c>
+      <c r="S13" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="X13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB13" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="J11" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M11" s="2">
-        <v>532.0</v>
-      </c>
-      <c r="N11" s="2">
-        <v>3376.0</v>
-      </c>
-      <c r="O11" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="V11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="W11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="X11" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" ht="15.0" customHeight="1">
-      <c r="A12" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="H12" s="6" t="s">
+      <c r="K14" s="2">
+        <v>255.0</v>
+      </c>
+      <c r="L14" s="2">
+        <v>255.0</v>
+      </c>
+      <c r="M14" s="2">
+        <v>255.0</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="O14" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>1493.0</v>
+      </c>
+      <c r="R14" s="2">
+        <v>10127.0</v>
+      </c>
+      <c r="S14" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="W14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB14" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="I12" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M12" s="2">
-        <v>670.0</v>
-      </c>
-      <c r="N12" s="2">
-        <v>4271.0</v>
-      </c>
-      <c r="O12" s="2">
-        <v>17.0</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="U12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="V12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="W12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X12" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E13" s="6" t="s">
+      <c r="F15" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K15" s="2">
+        <v>255.0</v>
+      </c>
+      <c r="L15" s="2">
+        <v>255.0</v>
+      </c>
+      <c r="M15" s="2">
+        <v>255.0</v>
+      </c>
+      <c r="N15" s="2">
+        <v>255.0</v>
+      </c>
+      <c r="O15" s="2">
+        <v>69.0</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>438.0</v>
+      </c>
+      <c r="R15" s="2">
+        <v>2717.0</v>
+      </c>
+      <c r="S15" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="W15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="X15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB15" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="J13" s="6" t="s">
+      <c r="F16" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K13" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="M13" s="2">
-        <v>110.0</v>
-      </c>
-      <c r="N13" s="2">
-        <v>688.0</v>
-      </c>
-      <c r="O13" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="U13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="V13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="W13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X13" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="J14" s="6" t="s">
+      <c r="K16" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="N16" s="2">
+        <v>255.0</v>
+      </c>
+      <c r="O16" s="2">
+        <v>255.0</v>
+      </c>
+      <c r="P16" s="2">
+        <v>255.0</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>265.0</v>
+      </c>
+      <c r="R16" s="2">
+        <v>1645.0</v>
+      </c>
+      <c r="S16" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="W16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="X16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB16" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="I17" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M14" s="2">
-        <v>1493.0</v>
-      </c>
-      <c r="N14" s="2">
-        <v>10127.0</v>
-      </c>
-      <c r="O14" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="V14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="W14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="X14" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="E15" s="6" t="s">
+      <c r="J17" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="M15" s="2">
-        <v>438.0</v>
-      </c>
-      <c r="N15" s="2">
-        <v>2717.0</v>
-      </c>
-      <c r="O15" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="V15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="W15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X15" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="E16" s="6" t="s">
+      <c r="K17" s="2">
+        <v>255.0</v>
+      </c>
+      <c r="L17" s="2">
+        <v>255.0</v>
+      </c>
+      <c r="M17" s="2">
+        <v>255.0</v>
+      </c>
+      <c r="N17" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="O17" s="2">
+        <v>33.0</v>
+      </c>
+      <c r="P17" s="2">
+        <v>105.0</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>768.0</v>
+      </c>
+      <c r="R17" s="2">
+        <v>5224.0</v>
+      </c>
+      <c r="S17" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="W17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="X17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB17" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="J16" s="6" t="s">
+      <c r="E18" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="M16" s="2">
-        <v>265.0</v>
-      </c>
-      <c r="N16" s="2">
-        <v>1645.0</v>
-      </c>
-      <c r="O16" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="V16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="W16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="X16" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="I17" s="6" t="s">
+      <c r="F18" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="G18" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H18" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K17" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M17" s="2">
-        <v>768.0</v>
-      </c>
-      <c r="N17" s="2">
-        <v>5224.0</v>
-      </c>
-      <c r="O17" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="V17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="W17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="X17" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="D18" s="6" t="s">
+      <c r="I18" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="J18" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F18" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>66</v>
+      <c r="K18" s="2">
+        <v>255.0</v>
+      </c>
+      <c r="L18" s="2">
+        <v>255.0</v>
       </c>
       <c r="M18" s="2">
+        <v>255.0</v>
+      </c>
+      <c r="N18" s="2">
+        <v>178.0</v>
+      </c>
+      <c r="O18" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="P18" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="Q18" s="2">
         <v>240.0</v>
       </c>
-      <c r="N18" s="2">
+      <c r="R18" s="2">
         <v>1785.0</v>
       </c>
-      <c r="O18" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S18" s="2" t="s">
-        <v>36</v>
+      <c r="S18" s="2">
+        <v>0.0</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W18" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="X18" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="Y18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB18" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="19">
@@ -2241,15 +2505,450 @@
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
     </row>
+    <row r="23">
+      <c r="A23" s="12"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="13"/>
+      <c r="D24" s="14"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="14"/>
+      <c r="AB24" s="14"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="15"/>
+      <c r="V25" s="15"/>
+      <c r="W25" s="15"/>
+      <c r="X25" s="15"/>
+      <c r="Y25" s="15"/>
+      <c r="Z25" s="15"/>
+      <c r="AA25" s="15"/>
+      <c r="AB25" s="15"/>
+      <c r="AC25" s="15"/>
+      <c r="AD25" s="15"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="16"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="14"/>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="14"/>
+      <c r="Z26" s="14"/>
+      <c r="AA26" s="14"/>
+      <c r="AB26" s="18"/>
+      <c r="AC26" s="18"/>
+      <c r="AD26" s="18"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="16"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="14"/>
+      <c r="V27" s="14"/>
+      <c r="W27" s="14"/>
+      <c r="X27" s="14"/>
+      <c r="Y27" s="14"/>
+      <c r="Z27" s="14"/>
+      <c r="AA27" s="14"/>
+      <c r="AB27" s="18"/>
+      <c r="AC27" s="18"/>
+      <c r="AD27" s="18"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="16"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="14"/>
+      <c r="W28" s="14"/>
+      <c r="X28" s="14"/>
+      <c r="Y28" s="14"/>
+      <c r="Z28" s="14"/>
+      <c r="AA28" s="14"/>
+      <c r="AB28" s="18"/>
+      <c r="AC28" s="18"/>
+      <c r="AD28" s="18"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="16"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="14"/>
+      <c r="V29" s="14"/>
+      <c r="W29" s="14"/>
+      <c r="X29" s="14"/>
+      <c r="Y29" s="14"/>
+      <c r="Z29" s="14"/>
+      <c r="AA29" s="14"/>
+      <c r="AB29" s="18"/>
+      <c r="AC29" s="18"/>
+      <c r="AD29" s="18"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="16"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="18"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="14"/>
+      <c r="V30" s="14"/>
+      <c r="W30" s="14"/>
+      <c r="X30" s="14"/>
+      <c r="Y30" s="14"/>
+      <c r="Z30" s="14"/>
+      <c r="AA30" s="14"/>
+      <c r="AB30" s="18"/>
+      <c r="AC30" s="18"/>
+      <c r="AD30" s="18"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="16"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="14"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="14"/>
+      <c r="X31" s="14"/>
+      <c r="Y31" s="14"/>
+      <c r="Z31" s="14"/>
+      <c r="AA31" s="14"/>
+      <c r="AB31" s="18"/>
+      <c r="AC31" s="18"/>
+      <c r="AD31" s="18"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="16"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="18"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="14"/>
+      <c r="V32" s="14"/>
+      <c r="W32" s="14"/>
+      <c r="X32" s="14"/>
+      <c r="Y32" s="14"/>
+      <c r="Z32" s="14"/>
+      <c r="AA32" s="14"/>
+      <c r="AB32" s="18"/>
+      <c r="AC32" s="18"/>
+      <c r="AD32" s="18"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="16"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="18"/>
+      <c r="S33" s="14"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="14"/>
+      <c r="V33" s="14"/>
+      <c r="W33" s="14"/>
+      <c r="X33" s="14"/>
+      <c r="Y33" s="14"/>
+      <c r="Z33" s="14"/>
+      <c r="AA33" s="14"/>
+      <c r="AB33" s="18"/>
+      <c r="AC33" s="18"/>
+      <c r="AD33" s="18"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="16"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="18"/>
+      <c r="S34" s="14"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="14"/>
+      <c r="V34" s="14"/>
+      <c r="W34" s="14"/>
+      <c r="X34" s="14"/>
+      <c r="Y34" s="14"/>
+      <c r="Z34" s="14"/>
+      <c r="AA34" s="14"/>
+      <c r="AB34" s="18"/>
+      <c r="AC34" s="18"/>
+      <c r="AD34" s="18"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="16"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="18"/>
+      <c r="S35" s="14"/>
+      <c r="T35" s="14"/>
+      <c r="U35" s="14"/>
+      <c r="V35" s="14"/>
+      <c r="W35" s="14"/>
+      <c r="X35" s="14"/>
+      <c r="Y35" s="14"/>
+      <c r="Z35" s="14"/>
+      <c r="AA35" s="14"/>
+      <c r="AB35" s="18"/>
+      <c r="AC35" s="18"/>
+      <c r="AD35" s="18"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="16"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="18"/>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="18"/>
+      <c r="S36" s="14"/>
+      <c r="T36" s="14"/>
+      <c r="U36" s="14"/>
+      <c r="V36" s="14"/>
+      <c r="W36" s="14"/>
+      <c r="X36" s="14"/>
+      <c r="Y36" s="14"/>
+      <c r="Z36" s="14"/>
+      <c r="AA36" s="14"/>
+      <c r="AB36" s="18"/>
+      <c r="AC36" s="18"/>
+      <c r="AD36" s="18"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="16"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="21"/>
+      <c r="R37" s="21"/>
+      <c r="S37" s="22"/>
+      <c r="T37" s="22"/>
+      <c r="U37" s="22"/>
+      <c r="V37" s="22"/>
+      <c r="W37" s="14"/>
+      <c r="X37" s="14"/>
+      <c r="Y37" s="14"/>
+      <c r="Z37" s="14"/>
+      <c r="AA37" s="14"/>
+      <c r="AB37" s="18"/>
+      <c r="AC37" s="18"/>
+      <c r="AD37" s="18"/>
+    </row>
     <row r="53">
-      <c r="U53" s="12"/>
+      <c r="W53" s="23"/>
     </row>
     <row r="77">
       <c r="C77" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="AB24:AD24"/>
+    <mergeCell ref="D24:L24"/>
+    <mergeCell ref="P24:AA24"/>
+    <mergeCell ref="A23:AD23"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="A2"/>
     <hyperlink r:id="rId2" ref="B2"/>

--- a/HiremasterAI.xlsx
+++ b/HiremasterAI.xlsx
@@ -2459,7 +2459,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="11"/>
+      <c r="A19" s="7"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
